--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1D418E-9E8B-49F8-89E9-D59E9E5A08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E140AA-5DF6-4BF0-AAAE-9F16D59E4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1860,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1938,7 +1932,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E140AA-5DF6-4BF0-AAAE-9F16D59E4014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D79482-1E95-4E64-B694-BA0CF0F52AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1943,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">

--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D79482-1E95-4E64-B694-BA0CF0F52AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE44DE-C6B7-4275-BDB1-C862382C2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1542,7 +1542,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1854,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1976,7 +1987,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -1987,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -1998,7 +2009,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2009,7 +2020,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -6926,6 +6937,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A6:A41">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{9492A4AD-FA44-BA4B-B154-E4DBB1951162}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{2D6F1134-3C08-7445-B19A-9B94A18B55C7}"/>

--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DE44DE-C6B7-4275-BDB1-C862382C2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC1CCC-1F43-4820-8DEC-E65F3858F5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1491,13 +1491,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1513,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1569,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1865,8 +1909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1903,7 +1947,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1914,7 +1958,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1925,7 +1969,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1936,7 +1980,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1947,7 +1991,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1958,7 +2002,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1969,7 +2013,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1980,7 +2024,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1991,7 +2035,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2002,7 +2046,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2013,7 +2057,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2024,51 +2068,51 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="6" t="s">

--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBC1CCC-1F43-4820-8DEC-E65F3858F5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1E90F-3B26-4947-A7C2-2E4067F56101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1503,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1531,6 +1534,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1545,7 +1572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1579,6 +1606,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1909,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B410" sqref="B410"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6202,51 +6241,51 @@
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="16" t="s">
         <v>393</v>
       </c>
       <c r="B411" s="6" t="s">
         <v>395</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="21">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>396</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>4</v>
+        <v>466</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="21">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="14" t="s">
         <v>393</v>
       </c>
       <c r="B413" s="6" t="s">
         <v>397</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="21">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="18" t="s">
         <v>393</v>
       </c>
       <c r="B414" s="6" t="s">

--- a/DSA_SHEET/FINAL450.xlsx
+++ b/DSA_SHEET/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\OneDrive\Desktop\DSA\DSA_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1E90F-3B26-4947-A7C2-2E4067F56101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57CA8B-BA67-455E-96CD-2AB5EF051151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1432,7 +1432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1498,6 +1498,14 @@
       <b/>
       <sz val="15"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1572,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1618,6 +1626,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1948,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B409" sqref="B409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -6292,29 +6303,29 @@
         <v>398</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="21">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="19" t="s">
         <v>393</v>
       </c>
       <c r="B415" s="6" t="s">
         <v>399</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="21">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="11" t="s">
         <v>393</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>400</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="21">
